--- a/Pandas_Cheat Sheet (Autosaved).xlsx
+++ b/Pandas_Cheat Sheet (Autosaved).xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="25600" windowHeight="13960" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data Frame operations" sheetId="1" r:id="rId1"/>
     <sheet name="Data Transformation" sheetId="4" r:id="rId2"/>
     <sheet name="Modelling" sheetId="3" r:id="rId3"/>
     <sheet name="Plots" sheetId="2" r:id="rId4"/>
+    <sheet name="Numpy" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="214">
   <si>
     <t>Inverse</t>
   </si>
@@ -692,11 +693,6 @@
     <t>This plots the pairwise plots of the variables in the Dataframe</t>
   </si>
   <si>
-    <t>le = preprocessing.LabelEncoder()
-df.League = le.fit(["A" ,"N"])
-df.League = le.fit_transform(df.League)</t>
-  </si>
-  <si>
     <t>Encoding categorical variables to numeric</t>
   </si>
   <si>
@@ -711,13 +707,389 @@
   <si>
     <t>Selecting K Best features 
 (for Linear regression , change the function 'f_regression' for logistic)</t>
+  </si>
+  <si>
+    <t>" ".join(str(x) for x in feature_list)</t>
+  </si>
+  <si>
+    <t>converting a List to a string</t>
+  </si>
+  <si>
+    <t>Legends to the plots</t>
+  </si>
+  <si>
+    <t>enc = preprocessing.LabelEncoder()
+X = df_ridge[['League']]
+temp = enc.fit_transform(X)
+temp.shape
+temp1 = np.reshape(temp , (262 ,1))
+df_ridge[['League']] = temp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ridge_results.CV_MSE[(ridge_results.CV_MSE == 104920.12718677497)]
+</t>
+  </si>
+  <si>
+    <t>to get the index of a known value of a column</t>
+  </si>
+  <si>
+    <t>pd.options.display.float_format = '{:,.2g}'.format</t>
+  </si>
+  <si>
+    <t>display in scientific format</t>
+  </si>
+  <si>
+    <t>plt.plot( feature_eval.Kval , feature_eval.Train_score , marker = '*' , label = 'Train')
+plt.plot( feature_eval.Kval ,feature_eval.CV_score , marker = 'o' ,label = 'CV #')
+plt.legend(loc='upper left')
+plt.show()
+#legend('Train' , 'CV')
+plt.xlabel('Alpha' )
+plt.ylabel('Score' )</t>
+  </si>
+  <si>
+    <t>pca.explained_variance_ratio</t>
+  </si>
+  <si>
+    <t>to calculate the extent to which PCA maps the factor</t>
+  </si>
+  <si>
+    <t>Random Number Generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> numpy.random.normal(loc=0.0, scale=1.0, size=None)¶</t>
+  </si>
+  <si>
+    <t>alphas = 10**np.linspace(10,-2,100)*2</t>
+  </si>
+  <si>
+    <t>evenly spaced number generator
+ numpy.linspace(start, stop, num=50, endpoint=True, retstep=False, dtype=None)[source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lasso </t>
+  </si>
+  <si>
+    <t>sklearn.linear_model.Lasso</t>
+  </si>
+  <si>
+    <t>df.rename(index = str , columns = {'S.F.Ratio':"SF_RATIO" ,'F.Undergrad':"F_Undergrad",'P.Undergrad':"P_Undergrad" },inplace = True)</t>
+  </si>
+  <si>
+    <t>Settig the limits on the plot (on axes)</t>
+  </si>
+  <si>
+    <t>ax2.set_ylim(-0.01,0.21)</t>
+  </si>
+  <si>
+    <t>drawing random scatter plots of data distribution</t>
+  </si>
+  <si>
+    <r>
+      <t>ax1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>scatter(df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>age, df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>wage, facecolor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>'None'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>, edgecolor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>'k'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>, alpha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>=0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>drawing confidence intervals</t>
+  </si>
+  <si>
+    <r>
+      <t>sns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>regplot(df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>age, df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">wage, order </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>, truncate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>, scatter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>, ax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>ax1)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">from statsmodels.stats.api import anova_lm
+model_1 = smf.ols(formula = 'wage ~ age' , data = df).fit()
+model_2 = smf.ols(formula = 'wage ~ age_2' , data = df).fit()
+model_3 = smf.ols(formula = 'wage ~ age_3' , data = df).fit()
+model_4 = smf.ols(formula = 'wage ~ age_4' , data = df).fit()
+model_5 = smf.ols(formula = 'wage ~ age_5' , data = df).fit()
+sm.stats.anova_lm(model_1, model_2, model_3, model_4, model_5, typ=1)
+</t>
+  </si>
+  <si>
+    <t>ANOVA(analysis of variance)</t>
+  </si>
+  <si>
+    <t>plt.axis([0,20 , 0,3])</t>
+  </si>
+  <si>
+    <t>To limit the axis</t>
+  </si>
+  <si>
+    <t>Splines</t>
+  </si>
+  <si>
+    <t>from scipy import interpolate
+df['age'] = pd.to_numeric(df.age)
+y = pd.to_numeric(df.wage)
+tck = interpolate.interp1d(df.age, y)
+y_hat_new = tck(df.age)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -757,6 +1129,40 @@
       <sz val="14"/>
       <color rgb="FF7B8A8B"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF666666"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFBA2121"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
     </font>
   </fonts>
   <fills count="3">
@@ -808,10 +1214,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -844,21 +1251,31 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1134,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,223 +1588,255 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>191</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>166</v>
+        <v>127</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="23" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="24" spans="1:3" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="304" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" ht="304" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="144" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+    <row r="27" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1400,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1482,7 +1931,7 @@
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1493,7 +1942,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="7" t="s">
         <v>43</v>
       </c>
@@ -1512,15 +1961,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -1535,7 +1984,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1546,7 +1995,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
     </row>
@@ -1610,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1888,24 +2337,59 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" s="20" t="s">
+      <c r="A27" s="18" t="s">
         <v>183</v>
       </c>
+      <c r="B27" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B29" r:id="rId1" location="module-sklearn.linear_model" tooltip="sklearn.linear_model"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2050,18 +2534,90 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>178</v>
       </c>
       <c r="C15" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
+    <row r="16" spans="1:3" ht="216" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="81" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
